--- a/API.xlsx
+++ b/API.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jetse\Documenten\EhB Toegepaste Informatica\2018-2019\EhB\Integration Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{66B075D9-64F1-4986-AB9B-F5F756BD8C19}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79E31392-128D-4B56-A9A3-5E99297E5CF5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21030" yWindow="1020" windowWidth="22500" windowHeight="16530" xr2:uid="{C7FFF45F-5EC2-4765-90A6-E1B9338E9F1F}"/>
+    <workbookView xWindow="17505" yWindow="1605" windowWidth="18750" windowHeight="16035" xr2:uid="{C7FFF45F-5EC2-4765-90A6-E1B9338E9F1F}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="86">
   <si>
     <t>method</t>
   </si>
@@ -154,6 +154,9 @@
     <t>/ip/sessie</t>
   </si>
   <si>
+    <t>sessieUUID</t>
+  </si>
+  <si>
     <t>gastspreker</t>
   </si>
   <si>
@@ -208,7 +211,85 @@
     <t>/ip/bezoeker</t>
   </si>
   <si>
+    <t>bezoekerUUID</t>
+  </si>
+  <si>
     <t>bezoekerUUID*</t>
+  </si>
+  <si>
+    <t>/ip/groep</t>
+  </si>
+  <si>
+    <t>groepUUID</t>
+  </si>
+  <si>
+    <t>adminEmail</t>
+  </si>
+  <si>
+    <t>groepUUID*</t>
+  </si>
+  <si>
+    <t>groepsnaam*</t>
+  </si>
+  <si>
+    <t>/ip/kalender</t>
+  </si>
+  <si>
+    <t>kalenderUUID*</t>
+  </si>
+  <si>
+    <t>link*</t>
+  </si>
+  <si>
+    <t>/ip/taak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">omschrijving </t>
+  </si>
+  <si>
+    <t xml:space="preserve">startDatum </t>
+  </si>
+  <si>
+    <t xml:space="preserve">eindDatum </t>
+  </si>
+  <si>
+    <t>aantalPersonen</t>
+  </si>
+  <si>
+    <t>taakUUID*</t>
+  </si>
+  <si>
+    <t>/ip/shift</t>
+  </si>
+  <si>
+    <t>/ip/reservatie</t>
+  </si>
+  <si>
+    <t>betaalstatus</t>
+  </si>
+  <si>
+    <t>1=betaald, 0=nog niet betaald</t>
+  </si>
+  <si>
+    <t>shiftUUID*</t>
+  </si>
+  <si>
+    <t>reservatieUUID*</t>
+  </si>
+  <si>
+    <t>/ip/registratie</t>
+  </si>
+  <si>
+    <t>registratieUUID*</t>
+  </si>
+  <si>
+    <t>/ip/locatie</t>
+  </si>
+  <si>
+    <t>locatieUUID*</t>
+  </si>
+  <si>
+    <t>locatie*</t>
   </si>
 </sst>
 </file>
@@ -591,10 +672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46BC6C44-7500-4C0D-AF10-F0B468EB3624}">
-  <dimension ref="A1:E63"/>
+  <dimension ref="A1:E105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="E103" sqref="E103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -776,10 +857,10 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -787,7 +868,7 @@
         <v>28</v>
       </c>
       <c r="D20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -830,7 +911,7 @@
         <v>17</v>
       </c>
       <c r="C25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D25" t="s">
         <v>16</v>
@@ -862,7 +943,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D29" t="s">
         <v>16</v>
@@ -873,7 +954,7 @@
         <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -881,12 +962,12 @@
         <v>28</v>
       </c>
       <c r="D31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D32" t="s">
         <v>16</v>
@@ -894,10 +975,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D33" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -910,7 +991,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D35" t="s">
         <v>16</v>
@@ -918,7 +999,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D36" t="s">
         <v>31</v>
@@ -942,13 +1023,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B39" t="s">
         <v>17</v>
       </c>
       <c r="C39" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D39" t="s">
         <v>16</v>
@@ -956,7 +1037,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D40" t="s">
         <v>16</v>
@@ -964,7 +1045,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D41" t="s">
         <v>16</v>
@@ -972,7 +1053,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D42" t="s">
         <v>16</v>
@@ -1012,7 +1093,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D47" t="s">
         <v>16</v>
@@ -1020,7 +1101,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D48" t="s">
         <v>31</v>
@@ -1028,7 +1109,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D49" t="s">
         <v>31</v>
@@ -1052,13 +1133,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B52" t="s">
         <v>17</v>
       </c>
       <c r="C52" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D52" t="s">
         <v>16</v>
@@ -1066,7 +1147,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D53" t="s">
         <v>16</v>
@@ -1074,7 +1155,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D54" t="s">
         <v>16</v>
@@ -1082,7 +1163,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D55" t="s">
         <v>16</v>
@@ -1122,7 +1203,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D60" t="s">
         <v>31</v>
@@ -1130,7 +1211,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D61" t="s">
         <v>31</v>
@@ -1152,12 +1233,394 @@
         <v>20</v>
       </c>
     </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>61</v>
+      </c>
+      <c r="B64" t="s">
+        <v>17</v>
+      </c>
+      <c r="C64" t="s">
+        <v>64</v>
+      </c>
+      <c r="D64" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C65" t="s">
+        <v>65</v>
+      </c>
+      <c r="D65" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C66" t="s">
+        <v>63</v>
+      </c>
+      <c r="D66" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C67" t="s">
+        <v>53</v>
+      </c>
+      <c r="D67" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C68" t="s">
+        <v>54</v>
+      </c>
+      <c r="D68" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C69" t="s">
+        <v>25</v>
+      </c>
+      <c r="D69" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C70" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>66</v>
+      </c>
+      <c r="B71" t="s">
+        <v>17</v>
+      </c>
+      <c r="C71" t="s">
+        <v>67</v>
+      </c>
+      <c r="D71" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C72" t="s">
+        <v>68</v>
+      </c>
+      <c r="D72" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C73" t="s">
+        <v>2</v>
+      </c>
+      <c r="D73" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C74" t="s">
+        <v>25</v>
+      </c>
+      <c r="D74" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C75" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>69</v>
+      </c>
+      <c r="B76" t="s">
+        <v>17</v>
+      </c>
+      <c r="C76" t="s">
+        <v>74</v>
+      </c>
+      <c r="D76" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C77" t="s">
+        <v>33</v>
+      </c>
+      <c r="D77" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C78" t="s">
+        <v>70</v>
+      </c>
+      <c r="D78" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C79" t="s">
+        <v>71</v>
+      </c>
+      <c r="D79" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C80" t="s">
+        <v>72</v>
+      </c>
+      <c r="D80" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C81" t="s">
+        <v>73</v>
+      </c>
+      <c r="D81" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C82" t="s">
+        <v>25</v>
+      </c>
+      <c r="D82" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C83" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>75</v>
+      </c>
+      <c r="B84" t="s">
+        <v>17</v>
+      </c>
+      <c r="C84" t="s">
+        <v>79</v>
+      </c>
+      <c r="D84" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C85" t="s">
+        <v>55</v>
+      </c>
+      <c r="D85" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C86" t="s">
+        <v>74</v>
+      </c>
+      <c r="D86" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C87" t="s">
+        <v>25</v>
+      </c>
+      <c r="D87" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C88" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>76</v>
+      </c>
+      <c r="B89" t="s">
+        <v>17</v>
+      </c>
+      <c r="C89" t="s">
+        <v>80</v>
+      </c>
+      <c r="D89" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C90" t="s">
+        <v>59</v>
+      </c>
+      <c r="D90" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C91" t="s">
+        <v>40</v>
+      </c>
+      <c r="D91" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C92" t="s">
+        <v>62</v>
+      </c>
+      <c r="D92" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C93" t="s">
+        <v>77</v>
+      </c>
+      <c r="D93" t="s">
+        <v>31</v>
+      </c>
+      <c r="E93" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C94" t="s">
+        <v>25</v>
+      </c>
+      <c r="D94" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C95" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>81</v>
+      </c>
+      <c r="B96" t="s">
+        <v>17</v>
+      </c>
+      <c r="C96" t="s">
+        <v>82</v>
+      </c>
+      <c r="D96" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C97" t="s">
+        <v>60</v>
+      </c>
+      <c r="D97" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C98" t="s">
+        <v>77</v>
+      </c>
+      <c r="D98" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C99" t="s">
+        <v>53</v>
+      </c>
+      <c r="D99" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C100" t="s">
+        <v>25</v>
+      </c>
+      <c r="D100" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C101" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>83</v>
+      </c>
+      <c r="B102" t="s">
+        <v>17</v>
+      </c>
+      <c r="C102" t="s">
+        <v>84</v>
+      </c>
+      <c r="D102" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C103" t="s">
+        <v>85</v>
+      </c>
+      <c r="D103" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C104" t="s">
+        <v>25</v>
+      </c>
+      <c r="D104" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C105" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-  <rowBreaks count="2" manualBreakCount="2">
+  <rowBreaks count="3" manualBreakCount="3">
     <brk id="1" max="16383" man="1"/>
     <brk id="14" max="16383" man="1"/>
+    <brk id="88" max="16383" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
